--- a/Onedrive All Files not in Folders/Test Payment Methods.xlsx
+++ b/Onedrive All Files not in Folders/Test Payment Methods.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/raghavendra_kamath_nrg_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{1AA0F9CF-C573-44D4-9A2D-AF577E507EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4025274E-7529-40ED-8B47-D56B820F5526}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{1AA0F9CF-C573-44D4-9A2D-AF577E507EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71E342A-B506-4B25-A998-78B1113B3EE3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AD030BF-38B5-46EF-B543-4AD4AE0B2027}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Routing Number</t>
+  </si>
+  <si>
+    <t>Acct Number</t>
+  </si>
   <si>
     <t>Card                </t>
   </si>
@@ -44,16 +53,52 @@
     <t>Visa</t>
   </si>
   <si>
+    <t>4444444444444448</t>
+  </si>
+  <si>
+    <t>4444424444444440</t>
+  </si>
+  <si>
+    <t>4055011111111111</t>
+  </si>
+  <si>
     <t>Master Card</t>
   </si>
   <si>
+    <t>5500005555555559</t>
+  </si>
+  <si>
+    <t>5555555555555557</t>
+  </si>
+  <si>
+    <t>5454545454545454</t>
+  </si>
+  <si>
+    <t>5555515555555551</t>
+  </si>
+  <si>
+    <t>5405222222222226</t>
+  </si>
+  <si>
+    <t>5478050000000007</t>
+  </si>
+  <si>
     <t>AMEX</t>
   </si>
   <si>
+    <t>371449635398431</t>
+  </si>
+  <si>
+    <t>343434343434343</t>
+  </si>
+  <si>
     <t>Discover</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>6011000995500000</t>
+  </si>
+  <si>
+    <t>6500000000000002</t>
   </si>
   <si>
     <t>PayPal</t>
@@ -65,58 +110,25 @@
     <t>Tester123</t>
   </si>
   <si>
-    <t>Routing Number</t>
-  </si>
-  <si>
-    <t>Acct Number</t>
-  </si>
-  <si>
-    <t>5500005555555559</t>
-  </si>
-  <si>
-    <t>5555555555555557</t>
-  </si>
-  <si>
-    <t>5454545454545454</t>
-  </si>
-  <si>
-    <t>5555515555555551</t>
-  </si>
-  <si>
-    <t>5405222222222226</t>
-  </si>
-  <si>
-    <t>5478050000000007</t>
-  </si>
-  <si>
-    <t>4444444444444448</t>
-  </si>
-  <si>
-    <t>4444424444444440</t>
-  </si>
-  <si>
-    <t>4055011111111111</t>
-  </si>
-  <si>
-    <t>371449635398431</t>
-  </si>
-  <si>
-    <t>343434343434343</t>
-  </si>
-  <si>
-    <t>6011000995500000</t>
-  </si>
-  <si>
-    <t>6500000000000002</t>
+    <t>0000000016</t>
+  </si>
+  <si>
+    <t>0000000018</t>
+  </si>
+  <si>
+    <t>0000000023</t>
+  </si>
+  <si>
+    <t>0000000026</t>
+  </si>
+  <si>
+    <t>0000000030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000000000000000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3C9F4D-E37E-4A74-9A7A-181D44A918CD}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,21 +519,22 @@
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>122199983</v>
       </c>
@@ -529,7 +542,7 @@
         <v>89455</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>122199983</v>
       </c>
@@ -537,120 +550,155 @@
         <v>200001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>122105278</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>122105278</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>122105278</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>122105278</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>122105278</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3</v>
+      <c r="A20" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
+      <c r="A25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" xr:uid="{3C25D3F2-4589-4031-A43E-9EB8E200315B}"/>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{3C25D3F2-4589-4031-A43E-9EB8E200315B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -658,6 +706,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c010059d-9eab-4c68-87ed-433a58c74c13" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -666,7 +722,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF5662055FEC514EB2C0EBC62BED4B54" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cb5f8dddd00242d183bfca1db75b1cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c010059d-9eab-4c68-87ed-433a58c74c13" xmlns:ns4="ced5cf1b-9858-4fe4-9435-fb41333c5620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30947fa80268da738dbdb2bbf2684c21" ns3:_="" ns4:_="">
     <xsd:import namespace="c010059d-9eab-4c68-87ed-433a58c74c13"/>
@@ -893,15 +949,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c010059d-9eab-4c68-87ed-433a58c74c13" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BA18E8-97FA-4980-A03A-BDD35C786096}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c010059d-9eab-4c68-87ed-433a58c74c13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9FAD59-A221-4C11-9FC4-B991F2D4D362}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -909,7 +967,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FAC785-8D3E-4572-935F-F55BA5075FBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -926,21 +984,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BA18E8-97FA-4980-A03A-BDD35C786096}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c010059d-9eab-4c68-87ed-433a58c74c13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ced5cf1b-9858-4fe4-9435-fb41333c5620"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>